--- a/tenstocks/stocks/行业5日资金流.xlsx
+++ b/tenstocks/stocks/行业5日资金流.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="行业5日资金流 - 副本1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -1157,13 +1157,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BO234"/>
+  <dimension ref="A1:BO247"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AS226" workbookViewId="0">
+      <selection activeCell="BH251" sqref="BH251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -45668,6 +45671,2645 @@
       </c>
       <c r="BO234">
         <v>3.598526508</v>
+      </c>
+    </row>
+    <row r="235" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>43686</v>
+      </c>
+      <c r="B235">
+        <v>-22.82</v>
+      </c>
+      <c r="C235">
+        <v>-25.41</v>
+      </c>
+      <c r="D235">
+        <v>-97.22</v>
+      </c>
+      <c r="E235">
+        <v>-34.159999999999997</v>
+      </c>
+      <c r="F235">
+        <v>-21.3</v>
+      </c>
+      <c r="G235">
+        <v>-36.200000000000003</v>
+      </c>
+      <c r="H235">
+        <v>-8.1199999999999992</v>
+      </c>
+      <c r="I235">
+        <v>-47.05</v>
+      </c>
+      <c r="J235">
+        <v>-6.28</v>
+      </c>
+      <c r="K235">
+        <v>-12.85</v>
+      </c>
+      <c r="L235">
+        <v>-24.01</v>
+      </c>
+      <c r="M235">
+        <v>-10.34</v>
+      </c>
+      <c r="N235">
+        <v>-3.4</v>
+      </c>
+      <c r="O235">
+        <v>-46.11</v>
+      </c>
+      <c r="P235">
+        <v>-44.75</v>
+      </c>
+      <c r="Q235">
+        <v>-14.81</v>
+      </c>
+      <c r="R235">
+        <v>-2.35</v>
+      </c>
+      <c r="S235">
+        <v>-53.83</v>
+      </c>
+      <c r="T235">
+        <v>-19.579999999999998</v>
+      </c>
+      <c r="U235">
+        <v>-3.37</v>
+      </c>
+      <c r="V235">
+        <v>-3.08</v>
+      </c>
+      <c r="W235">
+        <v>-6.98</v>
+      </c>
+      <c r="X235">
+        <v>-26.1</v>
+      </c>
+      <c r="Y235">
+        <v>-7.46</v>
+      </c>
+      <c r="Z235">
+        <v>-4.42</v>
+      </c>
+      <c r="AA235">
+        <v>-4.8600000000000003</v>
+      </c>
+      <c r="AB235">
+        <v>-2.3199999999999998</v>
+      </c>
+      <c r="AC235">
+        <v>-1.73</v>
+      </c>
+      <c r="AD235">
+        <v>-1.64</v>
+      </c>
+      <c r="AE235">
+        <v>-8.2899999999999991</v>
+      </c>
+      <c r="AF235">
+        <v>-6.58</v>
+      </c>
+      <c r="AG235">
+        <v>-7.97</v>
+      </c>
+      <c r="AH235">
+        <v>-2.66</v>
+      </c>
+      <c r="AI235">
+        <v>-6.3</v>
+      </c>
+      <c r="AJ235">
+        <v>-7.85</v>
+      </c>
+      <c r="AK235">
+        <v>-12.14</v>
+      </c>
+      <c r="AL235">
+        <v>-4.1900000000000004</v>
+      </c>
+      <c r="AM235">
+        <v>-4.79</v>
+      </c>
+      <c r="AN235">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="AO235">
+        <v>-3.44</v>
+      </c>
+      <c r="AP235">
+        <v>-21.84</v>
+      </c>
+      <c r="AQ235">
+        <v>-12.78</v>
+      </c>
+      <c r="AR235">
+        <v>-10.6</v>
+      </c>
+      <c r="AS235">
+        <v>-0.1019</v>
+      </c>
+      <c r="AT235">
+        <v>-8.41</v>
+      </c>
+      <c r="AU235">
+        <v>-2.48</v>
+      </c>
+      <c r="AV235">
+        <v>-2.64</v>
+      </c>
+      <c r="AW235">
+        <v>-2.48</v>
+      </c>
+      <c r="AX235">
+        <v>-5.83</v>
+      </c>
+      <c r="AY235">
+        <v>-2.33</v>
+      </c>
+      <c r="AZ235">
+        <v>-7.32</v>
+      </c>
+      <c r="BA235">
+        <v>-1.47</v>
+      </c>
+      <c r="BB235">
+        <v>-4.92</v>
+      </c>
+      <c r="BC235">
+        <v>-13.16</v>
+      </c>
+      <c r="BD235">
+        <v>-4.04</v>
+      </c>
+      <c r="BE235">
+        <v>-1.8800000000000001E-2</v>
+      </c>
+      <c r="BF235">
+        <v>-1.0900000000000001</v>
+      </c>
+      <c r="BG235">
+        <v>1.8200000000000001E-2</v>
+      </c>
+      <c r="BH235">
+        <v>-0.44040000000000001</v>
+      </c>
+      <c r="BI235">
+        <v>-7.83</v>
+      </c>
+      <c r="BJ235">
+        <v>-23.93</v>
+      </c>
+      <c r="BK235">
+        <v>-795.55290000000036</v>
+      </c>
+      <c r="BL235">
+        <v>9779</v>
+      </c>
+      <c r="BM235">
+        <v>10861</v>
+      </c>
+      <c r="BN235">
+        <v>20640</v>
+      </c>
+      <c r="BO235">
+        <v>3.8544229651162811</v>
+      </c>
+    </row>
+    <row r="236" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>43693</v>
+      </c>
+      <c r="B236">
+        <v>-6.84</v>
+      </c>
+      <c r="C236">
+        <v>-6.37</v>
+      </c>
+      <c r="D236">
+        <v>-0.82699999999999996</v>
+      </c>
+      <c r="E236">
+        <v>-8.27</v>
+      </c>
+      <c r="F236">
+        <v>6.98</v>
+      </c>
+      <c r="G236">
+        <v>1.86</v>
+      </c>
+      <c r="H236">
+        <v>-2.12</v>
+      </c>
+      <c r="I236">
+        <v>-28.46</v>
+      </c>
+      <c r="J236">
+        <v>-5.49</v>
+      </c>
+      <c r="K236">
+        <v>-18.75</v>
+      </c>
+      <c r="L236">
+        <v>-5.34</v>
+      </c>
+      <c r="M236">
+        <v>-4.87</v>
+      </c>
+      <c r="N236">
+        <v>-2.15</v>
+      </c>
+      <c r="O236">
+        <v>-8.3000000000000007</v>
+      </c>
+      <c r="P236">
+        <v>-6.67</v>
+      </c>
+      <c r="Q236">
+        <v>-3.45</v>
+      </c>
+      <c r="R236">
+        <v>-1.35</v>
+      </c>
+      <c r="S236">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="T236">
+        <v>-7.48</v>
+      </c>
+      <c r="U236">
+        <v>-1.04</v>
+      </c>
+      <c r="V236">
+        <v>0.84630000000000005</v>
+      </c>
+      <c r="W236">
+        <v>-15.79</v>
+      </c>
+      <c r="X236">
+        <v>-8.3699999999999992</v>
+      </c>
+      <c r="Y236">
+        <v>-2.93</v>
+      </c>
+      <c r="Z236">
+        <v>-2.2799999999999998</v>
+      </c>
+      <c r="AA236">
+        <v>-1.96</v>
+      </c>
+      <c r="AB236">
+        <v>-0.3115</v>
+      </c>
+      <c r="AC236">
+        <v>-3.46</v>
+      </c>
+      <c r="AD236">
+        <v>0.85129999999999995</v>
+      </c>
+      <c r="AE236">
+        <v>-4.32</v>
+      </c>
+      <c r="AF236">
+        <v>0.1399</v>
+      </c>
+      <c r="AG236">
+        <v>-5.97</v>
+      </c>
+      <c r="AH236">
+        <v>-3.79</v>
+      </c>
+      <c r="AI236">
+        <v>3.46</v>
+      </c>
+      <c r="AJ236">
+        <v>-1.76</v>
+      </c>
+      <c r="AK236">
+        <v>-1.44</v>
+      </c>
+      <c r="AL236">
+        <v>-0.52090000000000003</v>
+      </c>
+      <c r="AM236">
+        <v>-1.33</v>
+      </c>
+      <c r="AN236">
+        <v>-0.74629999999999996</v>
+      </c>
+      <c r="AO236">
+        <v>-0.4269</v>
+      </c>
+      <c r="AP236">
+        <v>22.84</v>
+      </c>
+      <c r="AQ236">
+        <v>-5.19</v>
+      </c>
+      <c r="AR236">
+        <v>7.33</v>
+      </c>
+      <c r="AS236">
+        <v>3.5</v>
+      </c>
+      <c r="AT236">
+        <v>-3.28</v>
+      </c>
+      <c r="AU236">
+        <v>2.82</v>
+      </c>
+      <c r="AV236">
+        <v>-1.55</v>
+      </c>
+      <c r="AW236">
+        <v>-3.55</v>
+      </c>
+      <c r="AX236">
+        <v>-1.21</v>
+      </c>
+      <c r="AY236">
+        <v>-0.54330000000000001</v>
+      </c>
+      <c r="AZ236">
+        <v>3.41</v>
+      </c>
+      <c r="BA236">
+        <v>-0.34939999999999999</v>
+      </c>
+      <c r="BB236">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="BC236">
+        <v>-5.69</v>
+      </c>
+      <c r="BD236">
+        <v>-0.20219999999999999</v>
+      </c>
+      <c r="BE236">
+        <v>-2.02</v>
+      </c>
+      <c r="BF236">
+        <v>-0.65839999999999999</v>
+      </c>
+      <c r="BG236">
+        <v>4.6899999999999997E-2</v>
+      </c>
+      <c r="BH236">
+        <v>0.4093</v>
+      </c>
+      <c r="BI236">
+        <v>-14.02</v>
+      </c>
+      <c r="BJ236">
+        <v>-9.7200000000000006</v>
+      </c>
+      <c r="BK236">
+        <v>-157.29300000000001</v>
+      </c>
+      <c r="BL236">
+        <v>8502</v>
+      </c>
+      <c r="BM236">
+        <v>10787</v>
+      </c>
+      <c r="BN236">
+        <v>19289</v>
+      </c>
+      <c r="BO236">
+        <v>0.81545440406449277</v>
+      </c>
+    </row>
+    <row r="237" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>43700</v>
+      </c>
+      <c r="B237">
+        <v>-3.62</v>
+      </c>
+      <c r="C237">
+        <v>-5.43</v>
+      </c>
+      <c r="D237">
+        <v>-84.88</v>
+      </c>
+      <c r="E237">
+        <v>-16.46</v>
+      </c>
+      <c r="F237">
+        <v>-13.3</v>
+      </c>
+      <c r="G237">
+        <v>-5.9</v>
+      </c>
+      <c r="H237">
+        <v>-0.57069999999999999</v>
+      </c>
+      <c r="I237">
+        <v>-48.65</v>
+      </c>
+      <c r="J237">
+        <v>-2.41</v>
+      </c>
+      <c r="K237">
+        <v>-14.45</v>
+      </c>
+      <c r="L237">
+        <v>-8.49</v>
+      </c>
+      <c r="M237">
+        <v>-8.43</v>
+      </c>
+      <c r="N237">
+        <v>-5.17</v>
+      </c>
+      <c r="O237">
+        <v>-11.85</v>
+      </c>
+      <c r="P237">
+        <v>-28.82</v>
+      </c>
+      <c r="Q237">
+        <v>-3.35</v>
+      </c>
+      <c r="R237">
+        <v>0.78869999999999996</v>
+      </c>
+      <c r="S237">
+        <v>-26.81</v>
+      </c>
+      <c r="T237">
+        <v>-9.48</v>
+      </c>
+      <c r="U237">
+        <v>-2.2599999999999998</v>
+      </c>
+      <c r="V237">
+        <v>-3.43</v>
+      </c>
+      <c r="W237">
+        <v>-30.21</v>
+      </c>
+      <c r="X237">
+        <v>-14.51</v>
+      </c>
+      <c r="Y237">
+        <v>-3.82</v>
+      </c>
+      <c r="Z237">
+        <v>-1.86</v>
+      </c>
+      <c r="AA237">
+        <v>-0.4536</v>
+      </c>
+      <c r="AB237">
+        <v>-1.61</v>
+      </c>
+      <c r="AC237">
+        <v>-2.12</v>
+      </c>
+      <c r="AD237">
+        <v>0.1153</v>
+      </c>
+      <c r="AE237">
+        <v>-2.4</v>
+      </c>
+      <c r="AF237">
+        <v>-1.41</v>
+      </c>
+      <c r="AG237">
+        <v>-3.83</v>
+      </c>
+      <c r="AH237">
+        <v>-2.86</v>
+      </c>
+      <c r="AI237">
+        <v>-7.89</v>
+      </c>
+      <c r="AJ237">
+        <v>2.38</v>
+      </c>
+      <c r="AK237">
+        <v>-2.41</v>
+      </c>
+      <c r="AL237">
+        <v>-2.54</v>
+      </c>
+      <c r="AM237">
+        <v>-2.37</v>
+      </c>
+      <c r="AN237">
+        <v>-0.81110000000000004</v>
+      </c>
+      <c r="AO237">
+        <v>-0.3795</v>
+      </c>
+      <c r="AP237">
+        <v>-9.26</v>
+      </c>
+      <c r="AQ237">
+        <v>12.48</v>
+      </c>
+      <c r="AR237">
+        <v>-2.9</v>
+      </c>
+      <c r="AS237">
+        <v>1.66</v>
+      </c>
+      <c r="AT237">
+        <v>-1.2</v>
+      </c>
+      <c r="AU237">
+        <v>-2.97</v>
+      </c>
+      <c r="AV237">
+        <v>-3.15</v>
+      </c>
+      <c r="AW237">
+        <v>-3.35</v>
+      </c>
+      <c r="AX237">
+        <v>-3.42</v>
+      </c>
+      <c r="AY237">
+        <v>-1.68</v>
+      </c>
+      <c r="AZ237">
+        <v>-1.2</v>
+      </c>
+      <c r="BA237">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="BB237">
+        <v>-2.83</v>
+      </c>
+      <c r="BC237">
+        <v>-0.79700000000000004</v>
+      </c>
+      <c r="BD237">
+        <v>2.04</v>
+      </c>
+      <c r="BE237">
+        <v>-2.06</v>
+      </c>
+      <c r="BF237">
+        <v>-1.1100000000000001</v>
+      </c>
+      <c r="BG237">
+        <v>6.4100000000000004E-2</v>
+      </c>
+      <c r="BH237">
+        <v>1.49</v>
+      </c>
+      <c r="BI237">
+        <v>-18.68</v>
+      </c>
+      <c r="BJ237">
+        <v>-25.02</v>
+      </c>
+      <c r="BK237">
+        <v>-443.56779999999998</v>
+      </c>
+      <c r="BL237">
+        <v>10023</v>
+      </c>
+      <c r="BM237">
+        <v>14672</v>
+      </c>
+      <c r="BN237">
+        <v>24695</v>
+      </c>
+      <c r="BO237">
+        <v>1.7961846527637173</v>
+      </c>
+    </row>
+    <row r="238" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>43708</v>
+      </c>
+      <c r="B238">
+        <v>-29.77</v>
+      </c>
+      <c r="C238">
+        <v>-27.65</v>
+      </c>
+      <c r="D238">
+        <v>-118</v>
+      </c>
+      <c r="E238">
+        <v>-21.92</v>
+      </c>
+      <c r="F238">
+        <v>-62.29</v>
+      </c>
+      <c r="G238">
+        <v>-33.81</v>
+      </c>
+      <c r="H238">
+        <v>-6.11</v>
+      </c>
+      <c r="I238">
+        <v>-1.7</v>
+      </c>
+      <c r="J238">
+        <v>-7.05</v>
+      </c>
+      <c r="K238">
+        <v>-14.61</v>
+      </c>
+      <c r="L238">
+        <v>-16.09</v>
+      </c>
+      <c r="M238">
+        <v>-12.52</v>
+      </c>
+      <c r="N238">
+        <v>-0.8427</v>
+      </c>
+      <c r="O238">
+        <v>-34.78</v>
+      </c>
+      <c r="P238">
+        <v>-43.25</v>
+      </c>
+      <c r="Q238">
+        <v>-2.02</v>
+      </c>
+      <c r="R238">
+        <v>-3.34</v>
+      </c>
+      <c r="S238">
+        <v>-13.05</v>
+      </c>
+      <c r="T238">
+        <v>-5.16</v>
+      </c>
+      <c r="U238">
+        <v>-1.32</v>
+      </c>
+      <c r="V238">
+        <v>-4.57</v>
+      </c>
+      <c r="W238">
+        <v>-49.39</v>
+      </c>
+      <c r="X238">
+        <v>-14.36</v>
+      </c>
+      <c r="Y238">
+        <v>-4.0199999999999996</v>
+      </c>
+      <c r="Z238">
+        <v>-3.62</v>
+      </c>
+      <c r="AA238">
+        <v>-4.03</v>
+      </c>
+      <c r="AB238">
+        <v>-1.96</v>
+      </c>
+      <c r="AC238">
+        <v>-3.81</v>
+      </c>
+      <c r="AD238">
+        <v>-1.92</v>
+      </c>
+      <c r="AE238">
+        <v>-11.52</v>
+      </c>
+      <c r="AF238">
+        <v>-6.98</v>
+      </c>
+      <c r="AG238">
+        <v>-9.86</v>
+      </c>
+      <c r="AH238">
+        <v>0.7056</v>
+      </c>
+      <c r="AI238">
+        <v>-6.83</v>
+      </c>
+      <c r="AJ238">
+        <v>2.54</v>
+      </c>
+      <c r="AK238">
+        <v>-4.83</v>
+      </c>
+      <c r="AL238">
+        <v>-5.03</v>
+      </c>
+      <c r="AM238">
+        <v>-3.21</v>
+      </c>
+      <c r="AN238">
+        <v>-5.87</v>
+      </c>
+      <c r="AO238">
+        <v>-2.0299999999999998</v>
+      </c>
+      <c r="AP238">
+        <v>-9.51</v>
+      </c>
+      <c r="AQ238">
+        <v>-0.72799999999999998</v>
+      </c>
+      <c r="AR238">
+        <v>-12.61</v>
+      </c>
+      <c r="AS238">
+        <v>1.3</v>
+      </c>
+      <c r="AT238">
+        <v>-4.96</v>
+      </c>
+      <c r="AU238">
+        <v>-0.19450000000000001</v>
+      </c>
+      <c r="AV238">
+        <v>-8.27</v>
+      </c>
+      <c r="AW238">
+        <v>-1.72</v>
+      </c>
+      <c r="AX238">
+        <v>-3.89</v>
+      </c>
+      <c r="AY238">
+        <v>-2.38</v>
+      </c>
+      <c r="AZ238">
+        <v>-2.65</v>
+      </c>
+      <c r="BA238">
+        <v>-9.2999999999999999E-2</v>
+      </c>
+      <c r="BB238">
+        <v>-5.03</v>
+      </c>
+      <c r="BC238">
+        <v>-40.89</v>
+      </c>
+      <c r="BD238">
+        <v>-4.2300000000000004</v>
+      </c>
+      <c r="BE238">
+        <v>-1.58</v>
+      </c>
+      <c r="BF238">
+        <v>-1.3</v>
+      </c>
+      <c r="BG238">
+        <v>-5.6300000000000003E-2</v>
+      </c>
+      <c r="BH238">
+        <v>7.7799999999999994E-2</v>
+      </c>
+      <c r="BI238">
+        <v>-14.34</v>
+      </c>
+      <c r="BJ238">
+        <v>-16.059999999999999</v>
+      </c>
+      <c r="BK238">
+        <v>-724.99109999999973</v>
+      </c>
+      <c r="BL238">
+        <v>10449</v>
+      </c>
+      <c r="BM238">
+        <v>15009</v>
+      </c>
+      <c r="BN238">
+        <v>25458</v>
+      </c>
+      <c r="BO238">
+        <v>2.8477928352580713</v>
+      </c>
+    </row>
+    <row r="239" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>43714</v>
+      </c>
+      <c r="B239">
+        <v>-7.16</v>
+      </c>
+      <c r="C239">
+        <v>-11.45</v>
+      </c>
+      <c r="D239">
+        <v>-43.64</v>
+      </c>
+      <c r="E239">
+        <v>-2.39</v>
+      </c>
+      <c r="F239">
+        <v>-39.25</v>
+      </c>
+      <c r="G239">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="H239">
+        <v>-2.8</v>
+      </c>
+      <c r="I239">
+        <v>-66.55</v>
+      </c>
+      <c r="J239">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="K239">
+        <v>-10.51</v>
+      </c>
+      <c r="L239">
+        <v>-12.56</v>
+      </c>
+      <c r="M239">
+        <v>-14.14</v>
+      </c>
+      <c r="N239">
+        <v>-15.2</v>
+      </c>
+      <c r="O239">
+        <v>17.97</v>
+      </c>
+      <c r="P239">
+        <v>20.93</v>
+      </c>
+      <c r="Q239">
+        <v>-8.36</v>
+      </c>
+      <c r="R239">
+        <v>-7.41</v>
+      </c>
+      <c r="S239">
+        <v>-8.2200000000000006</v>
+      </c>
+      <c r="T239">
+        <v>-2.4</v>
+      </c>
+      <c r="U239">
+        <v>-2.63</v>
+      </c>
+      <c r="V239">
+        <v>-0.60009999999999997</v>
+      </c>
+      <c r="W239">
+        <v>-3.75</v>
+      </c>
+      <c r="X239">
+        <v>-21.45</v>
+      </c>
+      <c r="Y239">
+        <v>-2.96</v>
+      </c>
+      <c r="Z239">
+        <v>-3.64</v>
+      </c>
+      <c r="AA239">
+        <v>-0.4864</v>
+      </c>
+      <c r="AB239">
+        <v>-0.42509999999999998</v>
+      </c>
+      <c r="AC239">
+        <v>-3.89</v>
+      </c>
+      <c r="AD239">
+        <v>-0.32319999999999999</v>
+      </c>
+      <c r="AE239">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="AF239">
+        <v>-3.28</v>
+      </c>
+      <c r="AG239">
+        <v>-3.82</v>
+      </c>
+      <c r="AH239">
+        <v>-11.03</v>
+      </c>
+      <c r="AI239">
+        <v>-4.32</v>
+      </c>
+      <c r="AJ239">
+        <v>-8.1999999999999993</v>
+      </c>
+      <c r="AK239">
+        <v>-4.99</v>
+      </c>
+      <c r="AL239">
+        <v>-4.7</v>
+      </c>
+      <c r="AM239">
+        <v>6.5299999999999997E-2</v>
+      </c>
+      <c r="AN239">
+        <v>-2.72</v>
+      </c>
+      <c r="AO239">
+        <v>-0.76119999999999999</v>
+      </c>
+      <c r="AP239">
+        <v>-45.72</v>
+      </c>
+      <c r="AQ239">
+        <v>-0.66</v>
+      </c>
+      <c r="AR239">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="AS239">
+        <v>1.63</v>
+      </c>
+      <c r="AT239">
+        <v>-0.89510000000000001</v>
+      </c>
+      <c r="AU239">
+        <v>-0.96740000000000004</v>
+      </c>
+      <c r="AV239">
+        <v>-3.38</v>
+      </c>
+      <c r="AW239">
+        <v>0.2712</v>
+      </c>
+      <c r="AX239">
+        <v>-2.96</v>
+      </c>
+      <c r="AY239">
+        <v>-2.88</v>
+      </c>
+      <c r="AZ239">
+        <v>-15.14</v>
+      </c>
+      <c r="BA239">
+        <v>-4.1100000000000003</v>
+      </c>
+      <c r="BB239">
+        <v>-3.73</v>
+      </c>
+      <c r="BC239">
+        <v>-1.71</v>
+      </c>
+      <c r="BD239">
+        <v>-0.62490000000000001</v>
+      </c>
+      <c r="BE239">
+        <v>-1.65</v>
+      </c>
+      <c r="BF239">
+        <v>-7.1199999999999999E-2</v>
+      </c>
+      <c r="BG239">
+        <v>4.48E-2</v>
+      </c>
+      <c r="BH239">
+        <v>0.1075</v>
+      </c>
+      <c r="BI239">
+        <v>-28.84</v>
+      </c>
+      <c r="BJ239">
+        <v>-8.32</v>
+      </c>
+      <c r="BK239">
+        <v>-410.27679999999981</v>
+      </c>
+      <c r="BL239">
+        <v>13008</v>
+      </c>
+      <c r="BM239">
+        <v>18542</v>
+      </c>
+      <c r="BN239">
+        <v>31550</v>
+      </c>
+      <c r="BO239">
+        <v>1.300401901743264</v>
+      </c>
+    </row>
+    <row r="240" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>43720</v>
+      </c>
+      <c r="B240">
+        <v>-6.18</v>
+      </c>
+      <c r="C240">
+        <v>-28.57</v>
+      </c>
+      <c r="D240">
+        <v>-141</v>
+      </c>
+      <c r="E240">
+        <v>-17.45</v>
+      </c>
+      <c r="F240">
+        <v>-45.87</v>
+      </c>
+      <c r="G240">
+        <v>-54.33</v>
+      </c>
+      <c r="H240">
+        <v>-8.1199999999999992</v>
+      </c>
+      <c r="I240">
+        <v>-68.53</v>
+      </c>
+      <c r="J240">
+        <v>-8.4499999999999993</v>
+      </c>
+      <c r="K240">
+        <v>-24.74</v>
+      </c>
+      <c r="L240">
+        <v>-22.86</v>
+      </c>
+      <c r="M240">
+        <v>-9.7100000000000009</v>
+      </c>
+      <c r="N240">
+        <v>-12.58</v>
+      </c>
+      <c r="O240">
+        <v>-26.8</v>
+      </c>
+      <c r="P240">
+        <v>-42.61</v>
+      </c>
+      <c r="Q240">
+        <v>-7.22</v>
+      </c>
+      <c r="R240">
+        <v>-6.23</v>
+      </c>
+      <c r="S240">
+        <v>-79.540000000000006</v>
+      </c>
+      <c r="T240">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="U240">
+        <v>-3.09</v>
+      </c>
+      <c r="V240">
+        <v>-0.77969999999999995</v>
+      </c>
+      <c r="W240">
+        <v>-34.58</v>
+      </c>
+      <c r="X240">
+        <v>-16.86</v>
+      </c>
+      <c r="Y240">
+        <v>-4.49</v>
+      </c>
+      <c r="Z240">
+        <v>-2.0299999999999998</v>
+      </c>
+      <c r="AA240">
+        <v>-2.1</v>
+      </c>
+      <c r="AB240">
+        <v>-2.89</v>
+      </c>
+      <c r="AC240">
+        <v>-4.05</v>
+      </c>
+      <c r="AD240">
+        <v>-1.32</v>
+      </c>
+      <c r="AE240">
+        <v>-6.35</v>
+      </c>
+      <c r="AF240">
+        <v>-4.95</v>
+      </c>
+      <c r="AG240">
+        <v>-15.34</v>
+      </c>
+      <c r="AH240">
+        <v>-8.6999999999999993</v>
+      </c>
+      <c r="AI240">
+        <v>-8.1999999999999993</v>
+      </c>
+      <c r="AJ240">
+        <v>-15.64</v>
+      </c>
+      <c r="AK240">
+        <v>-5.68</v>
+      </c>
+      <c r="AL240">
+        <v>-9.85</v>
+      </c>
+      <c r="AM240">
+        <v>-2.92</v>
+      </c>
+      <c r="AN240">
+        <v>-5.41</v>
+      </c>
+      <c r="AO240">
+        <v>-1.72</v>
+      </c>
+      <c r="AP240">
+        <v>-55.26</v>
+      </c>
+      <c r="AQ240">
+        <v>-10.43</v>
+      </c>
+      <c r="AR240">
+        <v>-3.64</v>
+      </c>
+      <c r="AS240">
+        <v>3.27</v>
+      </c>
+      <c r="AT240">
+        <v>-2.44</v>
+      </c>
+      <c r="AU240">
+        <v>-4.41</v>
+      </c>
+      <c r="AV240">
+        <v>-5.39</v>
+      </c>
+      <c r="AW240">
+        <v>-2.27</v>
+      </c>
+      <c r="AX240">
+        <v>-3.08</v>
+      </c>
+      <c r="AY240">
+        <v>-1.58</v>
+      </c>
+      <c r="AZ240">
+        <v>-7.47</v>
+      </c>
+      <c r="BA240">
+        <v>-3.27</v>
+      </c>
+      <c r="BB240">
+        <v>-2.97</v>
+      </c>
+      <c r="BC240">
+        <v>-4.07</v>
+      </c>
+      <c r="BD240">
+        <v>-2.5099999999999998</v>
+      </c>
+      <c r="BE240">
+        <v>-2.02</v>
+      </c>
+      <c r="BF240">
+        <v>-1.1599999999999999</v>
+      </c>
+      <c r="BG240">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="BH240">
+        <v>-0.97489999999999999</v>
+      </c>
+      <c r="BI240">
+        <v>-27.95</v>
+      </c>
+      <c r="BJ240">
+        <v>-19.46</v>
+      </c>
+      <c r="BK240">
+        <v>-929.41950000000043</v>
+      </c>
+      <c r="BL240">
+        <v>10495</v>
+      </c>
+      <c r="BM240">
+        <v>15430</v>
+      </c>
+      <c r="BN240">
+        <v>25925</v>
+      </c>
+      <c r="BO240">
+        <v>3.5850318225650932</v>
+      </c>
+    </row>
+    <row r="241" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>43728</v>
+      </c>
+      <c r="B241">
+        <v>-21.98</v>
+      </c>
+      <c r="C241">
+        <v>-43.35</v>
+      </c>
+      <c r="D241">
+        <v>-79.73</v>
+      </c>
+      <c r="E241">
+        <v>-38.96</v>
+      </c>
+      <c r="F241">
+        <v>-36.19</v>
+      </c>
+      <c r="G241">
+        <v>-61.08</v>
+      </c>
+      <c r="H241">
+        <v>-15.16</v>
+      </c>
+      <c r="I241">
+        <v>-19.29</v>
+      </c>
+      <c r="J241">
+        <v>-11.76</v>
+      </c>
+      <c r="K241">
+        <v>-24.16</v>
+      </c>
+      <c r="L241">
+        <v>-23.78</v>
+      </c>
+      <c r="M241">
+        <v>-20.440000000000001</v>
+      </c>
+      <c r="N241">
+        <v>-15.34</v>
+      </c>
+      <c r="O241">
+        <v>-106</v>
+      </c>
+      <c r="P241">
+        <v>-80.77</v>
+      </c>
+      <c r="Q241">
+        <v>-21.5</v>
+      </c>
+      <c r="R241">
+        <v>-8.43</v>
+      </c>
+      <c r="S241">
+        <v>-114</v>
+      </c>
+      <c r="T241">
+        <v>-1.64</v>
+      </c>
+      <c r="U241">
+        <v>-6.92</v>
+      </c>
+      <c r="V241">
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="W241">
+        <v>-21.55</v>
+      </c>
+      <c r="X241">
+        <v>-13.57</v>
+      </c>
+      <c r="Y241">
+        <v>-14.09</v>
+      </c>
+      <c r="Z241">
+        <v>-5.56</v>
+      </c>
+      <c r="AA241">
+        <v>-3.83</v>
+      </c>
+      <c r="AB241">
+        <v>-1.64</v>
+      </c>
+      <c r="AC241">
+        <v>-4.74</v>
+      </c>
+      <c r="AD241">
+        <v>-1.19</v>
+      </c>
+      <c r="AE241">
+        <v>-8.98</v>
+      </c>
+      <c r="AF241">
+        <v>-14.53</v>
+      </c>
+      <c r="AG241">
+        <v>-6.86</v>
+      </c>
+      <c r="AH241">
+        <v>-6.9</v>
+      </c>
+      <c r="AI241">
+        <v>-10.95</v>
+      </c>
+      <c r="AJ241">
+        <v>-17.61</v>
+      </c>
+      <c r="AK241">
+        <v>-4.78</v>
+      </c>
+      <c r="AL241">
+        <v>-5.01</v>
+      </c>
+      <c r="AM241">
+        <v>-5.69</v>
+      </c>
+      <c r="AN241">
+        <v>-8.26</v>
+      </c>
+      <c r="AO241">
+        <v>-4.62</v>
+      </c>
+      <c r="AP241">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="AQ241">
+        <v>-17.52</v>
+      </c>
+      <c r="AR241">
+        <v>-13.36</v>
+      </c>
+      <c r="AS241">
+        <v>-4.1200000000000001E-2</v>
+      </c>
+      <c r="AT241">
+        <v>-3.97</v>
+      </c>
+      <c r="AU241">
+        <v>-4.9800000000000004</v>
+      </c>
+      <c r="AV241">
+        <v>-7.27</v>
+      </c>
+      <c r="AW241">
+        <v>-6.53</v>
+      </c>
+      <c r="AX241">
+        <v>-5.84</v>
+      </c>
+      <c r="AY241">
+        <v>-2.14</v>
+      </c>
+      <c r="AZ241">
+        <v>-5.0199999999999996</v>
+      </c>
+      <c r="BA241">
+        <v>0.26329999999999998</v>
+      </c>
+      <c r="BB241">
+        <v>-5.67</v>
+      </c>
+      <c r="BC241">
+        <v>-29.24</v>
+      </c>
+      <c r="BD241">
+        <v>-8.65</v>
+      </c>
+      <c r="BE241">
+        <v>-1.93</v>
+      </c>
+      <c r="BF241">
+        <v>-0.99219999999999997</v>
+      </c>
+      <c r="BG241">
+        <v>-8.6199999999999999E-2</v>
+      </c>
+      <c r="BH241">
+        <v>-2.59</v>
+      </c>
+      <c r="BI241">
+        <v>-13.13</v>
+      </c>
+      <c r="BJ241">
+        <v>-17.41</v>
+      </c>
+      <c r="BK241">
+        <v>-1056.7363</v>
+      </c>
+      <c r="BL241">
+        <v>10867</v>
+      </c>
+      <c r="BM241">
+        <v>16062</v>
+      </c>
+      <c r="BN241">
+        <v>26929</v>
+      </c>
+      <c r="BO241">
+        <v>3.9241572282669246</v>
+      </c>
+    </row>
+    <row r="242" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B242">
+        <v>-15.15</v>
+      </c>
+      <c r="C242">
+        <v>-30.75</v>
+      </c>
+      <c r="D242">
+        <v>-208</v>
+      </c>
+      <c r="E242">
+        <v>-30.56</v>
+      </c>
+      <c r="F242">
+        <v>-63.34</v>
+      </c>
+      <c r="G242">
+        <v>-70.62</v>
+      </c>
+      <c r="H242">
+        <v>-15.98</v>
+      </c>
+      <c r="I242">
+        <v>-46.79</v>
+      </c>
+      <c r="J242">
+        <v>-10.91</v>
+      </c>
+      <c r="K242">
+        <v>-17.87</v>
+      </c>
+      <c r="L242">
+        <v>-27.93</v>
+      </c>
+      <c r="M242">
+        <v>-26.82</v>
+      </c>
+      <c r="N242">
+        <v>-10.61</v>
+      </c>
+      <c r="O242">
+        <v>-54.11</v>
+      </c>
+      <c r="P242">
+        <v>-75.180000000000007</v>
+      </c>
+      <c r="Q242">
+        <v>-21.69</v>
+      </c>
+      <c r="R242">
+        <v>-5.36</v>
+      </c>
+      <c r="S242">
+        <v>-109</v>
+      </c>
+      <c r="T242">
+        <v>-11.07</v>
+      </c>
+      <c r="U242">
+        <v>-4.13</v>
+      </c>
+      <c r="V242">
+        <v>-5.86</v>
+      </c>
+      <c r="W242">
+        <v>6.3E-2</v>
+      </c>
+      <c r="X242">
+        <v>-9.89</v>
+      </c>
+      <c r="Y242">
+        <v>-4.8499999999999996</v>
+      </c>
+      <c r="Z242">
+        <v>-4.42</v>
+      </c>
+      <c r="AA242">
+        <v>-2.93</v>
+      </c>
+      <c r="AB242">
+        <v>-2.08</v>
+      </c>
+      <c r="AC242">
+        <v>-4.22</v>
+      </c>
+      <c r="AD242">
+        <v>-1.66</v>
+      </c>
+      <c r="AE242">
+        <v>-6.07</v>
+      </c>
+      <c r="AF242">
+        <v>-8.9</v>
+      </c>
+      <c r="AG242">
+        <v>-13.9</v>
+      </c>
+      <c r="AH242">
+        <v>-7.03</v>
+      </c>
+      <c r="AI242">
+        <v>-10.71</v>
+      </c>
+      <c r="AJ242">
+        <v>-13.96</v>
+      </c>
+      <c r="AK242">
+        <v>-4.8</v>
+      </c>
+      <c r="AL242">
+        <v>-6.38</v>
+      </c>
+      <c r="AM242">
+        <v>-3.76</v>
+      </c>
+      <c r="AN242">
+        <v>-5.18</v>
+      </c>
+      <c r="AO242">
+        <v>-3.61</v>
+      </c>
+      <c r="AP242">
+        <v>-24.58</v>
+      </c>
+      <c r="AQ242">
+        <v>-18.54</v>
+      </c>
+      <c r="AR242">
+        <v>-12.72</v>
+      </c>
+      <c r="AS242">
+        <v>0.96819999999999995</v>
+      </c>
+      <c r="AT242">
+        <v>-1.95</v>
+      </c>
+      <c r="AU242">
+        <v>-1.62</v>
+      </c>
+      <c r="AV242">
+        <v>-4.7699999999999996</v>
+      </c>
+      <c r="AW242">
+        <v>-3.26</v>
+      </c>
+      <c r="AX242">
+        <v>-4.43</v>
+      </c>
+      <c r="AY242">
+        <v>-3.75</v>
+      </c>
+      <c r="AZ242">
+        <v>-1.52</v>
+      </c>
+      <c r="BA242">
+        <v>-2.94</v>
+      </c>
+      <c r="BB242">
+        <v>-2.4700000000000002</v>
+      </c>
+      <c r="BC242">
+        <v>-22.2</v>
+      </c>
+      <c r="BD242">
+        <v>-6.95</v>
+      </c>
+      <c r="BE242">
+        <v>-1.48</v>
+      </c>
+      <c r="BF242">
+        <v>-1.04</v>
+      </c>
+      <c r="BG242">
+        <v>-8.1600000000000006E-2</v>
+      </c>
+      <c r="BH242">
+        <v>-1.06</v>
+      </c>
+      <c r="BI242">
+        <v>-17.239999999999998</v>
+      </c>
+      <c r="BJ242">
+        <v>-15.55</v>
+      </c>
+      <c r="BK242">
+        <v>-1123.2004000000002</v>
+      </c>
+      <c r="BL242">
+        <v>9787</v>
+      </c>
+      <c r="BM242">
+        <v>15389</v>
+      </c>
+      <c r="BN242">
+        <v>25176</v>
+      </c>
+      <c r="BO242">
+        <v>4.4613933905306649</v>
+      </c>
+    </row>
+    <row r="243" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>43756</v>
+      </c>
+      <c r="B243">
+        <v>-18.34</v>
+      </c>
+      <c r="C243">
+        <v>-28.54</v>
+      </c>
+      <c r="D243">
+        <v>-138.5</v>
+      </c>
+      <c r="E243">
+        <v>-25.560000000000002</v>
+      </c>
+      <c r="F243">
+        <v>-22.109999999999992</v>
+      </c>
+      <c r="G243">
+        <v>-41.61</v>
+      </c>
+      <c r="H243">
+        <v>-18.330000000000002</v>
+      </c>
+      <c r="I243">
+        <v>-15.149999999999999</v>
+      </c>
+      <c r="J243">
+        <v>-3.6800000000000006</v>
+      </c>
+      <c r="K243">
+        <v>-16.73</v>
+      </c>
+      <c r="L243">
+        <v>-29.93</v>
+      </c>
+      <c r="M243">
+        <v>-12.75</v>
+      </c>
+      <c r="N243">
+        <v>-6.32</v>
+      </c>
+      <c r="O243">
+        <v>-46.7</v>
+      </c>
+      <c r="P243">
+        <v>-41.760000000000005</v>
+      </c>
+      <c r="Q243">
+        <v>-14.229999999999999</v>
+      </c>
+      <c r="R243">
+        <v>-3.4600000000000009</v>
+      </c>
+      <c r="S243">
+        <v>-66.139999999999986</v>
+      </c>
+      <c r="T243">
+        <v>-2.65</v>
+      </c>
+      <c r="U243">
+        <v>-1.7796029999999998</v>
+      </c>
+      <c r="V243">
+        <v>-2.5056610000000004</v>
+      </c>
+      <c r="W243">
+        <v>-6.65</v>
+      </c>
+      <c r="X243">
+        <v>-7.43</v>
+      </c>
+      <c r="Y243">
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="Z243">
+        <v>-3.51</v>
+      </c>
+      <c r="AA243">
+        <v>-3.6999999999999997</v>
+      </c>
+      <c r="AB243">
+        <v>-5.1099999999999994</v>
+      </c>
+      <c r="AC243">
+        <v>-2.2000000000000006</v>
+      </c>
+      <c r="AD243">
+        <v>-0.88281200000000004</v>
+      </c>
+      <c r="AE243">
+        <v>-12.43</v>
+      </c>
+      <c r="AF243">
+        <v>-8.66</v>
+      </c>
+      <c r="AG243">
+        <v>-11.58</v>
+      </c>
+      <c r="AH243">
+        <v>-4.5</v>
+      </c>
+      <c r="AI243">
+        <v>-6.72</v>
+      </c>
+      <c r="AJ243">
+        <v>-7.17</v>
+      </c>
+      <c r="AK243">
+        <v>-7.0500000000000007</v>
+      </c>
+      <c r="AL243">
+        <v>-4.34</v>
+      </c>
+      <c r="AM243">
+        <v>-7.92</v>
+      </c>
+      <c r="AN243">
+        <v>-3.1999999999999997</v>
+      </c>
+      <c r="AO243">
+        <v>-2.4521169999999999</v>
+      </c>
+      <c r="AP243">
+        <v>-20.419999999999998</v>
+      </c>
+      <c r="AQ243">
+        <v>-7.1499999999999986</v>
+      </c>
+      <c r="AR243">
+        <v>-15.278065999999999</v>
+      </c>
+      <c r="AS243">
+        <v>-0.91988399999999992</v>
+      </c>
+      <c r="AT243">
+        <v>-10.45</v>
+      </c>
+      <c r="AU243">
+        <v>-2.04</v>
+      </c>
+      <c r="AV243">
+        <v>-2.6799999999999997</v>
+      </c>
+      <c r="AW243">
+        <v>-0.83000000000000007</v>
+      </c>
+      <c r="AX243">
+        <v>-4.2699999999999996</v>
+      </c>
+      <c r="AY243">
+        <v>-0.2799999999999998</v>
+      </c>
+      <c r="AZ243">
+        <v>-3.9499999999999993</v>
+      </c>
+      <c r="BA243">
+        <v>-0.67999999999999972</v>
+      </c>
+      <c r="BB243">
+        <v>-4.1500000000000004</v>
+      </c>
+      <c r="BC243">
+        <v>-5.9399999999999977</v>
+      </c>
+      <c r="BD243">
+        <v>-5.5399999999999991</v>
+      </c>
+      <c r="BE243">
+        <v>-1.0366599999999999</v>
+      </c>
+      <c r="BF243">
+        <v>-0.774783</v>
+      </c>
+      <c r="BG243">
+        <v>0.179978</v>
+      </c>
+      <c r="BH243">
+        <v>-1.289318</v>
+      </c>
+      <c r="BI243">
+        <v>-10.8</v>
+      </c>
+      <c r="BJ243">
+        <v>-16.380000000000003</v>
+      </c>
+      <c r="BK243">
+        <v>-781.35892599999943</v>
+      </c>
+      <c r="BL243">
+        <v>8556</v>
+      </c>
+      <c r="BM243">
+        <v>13392</v>
+      </c>
+      <c r="BN243">
+        <v>21948</v>
+      </c>
+      <c r="BO243">
+        <v>3.5600461363222133</v>
+      </c>
+    </row>
+    <row r="244" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>43763</v>
+      </c>
+      <c r="B244">
+        <v>-5.19</v>
+      </c>
+      <c r="C244">
+        <v>-11.75</v>
+      </c>
+      <c r="D244">
+        <v>-34.14</v>
+      </c>
+      <c r="E244">
+        <v>-16.03</v>
+      </c>
+      <c r="F244">
+        <v>-42.13</v>
+      </c>
+      <c r="G244">
+        <v>-24</v>
+      </c>
+      <c r="H244">
+        <v>-6.61</v>
+      </c>
+      <c r="I244">
+        <v>24.65</v>
+      </c>
+      <c r="J244">
+        <v>-5.64</v>
+      </c>
+      <c r="K244">
+        <v>-8.07</v>
+      </c>
+      <c r="L244">
+        <v>-14.37</v>
+      </c>
+      <c r="M244">
+        <v>-6.69</v>
+      </c>
+      <c r="N244">
+        <v>-5.25</v>
+      </c>
+      <c r="O244">
+        <v>-28.91</v>
+      </c>
+      <c r="P244">
+        <v>-20.52</v>
+      </c>
+      <c r="Q244">
+        <v>-9.92</v>
+      </c>
+      <c r="R244">
+        <v>-6.76</v>
+      </c>
+      <c r="S244">
+        <v>-39.24</v>
+      </c>
+      <c r="T244">
+        <v>-2.82</v>
+      </c>
+      <c r="U244">
+        <v>-0.25039699999999998</v>
+      </c>
+      <c r="V244">
+        <v>3.5660999999999998E-2</v>
+      </c>
+      <c r="W244">
+        <v>-14.99</v>
+      </c>
+      <c r="X244">
+        <v>-16.29</v>
+      </c>
+      <c r="Y244">
+        <v>-2.04</v>
+      </c>
+      <c r="Z244">
+        <v>-1.95</v>
+      </c>
+      <c r="AA244">
+        <v>-1.02</v>
+      </c>
+      <c r="AB244">
+        <v>-4.92</v>
+      </c>
+      <c r="AC244">
+        <v>-3.03</v>
+      </c>
+      <c r="AD244">
+        <v>-0.417188</v>
+      </c>
+      <c r="AE244">
+        <v>-8.7899999999999991</v>
+      </c>
+      <c r="AF244">
+        <v>-2.4700000000000002</v>
+      </c>
+      <c r="AG244">
+        <v>-3.39</v>
+      </c>
+      <c r="AH244">
+        <v>-1.42</v>
+      </c>
+      <c r="AI244">
+        <v>-4.6100000000000003</v>
+      </c>
+      <c r="AJ244">
+        <v>-3.72</v>
+      </c>
+      <c r="AK244">
+        <v>-5.66</v>
+      </c>
+      <c r="AL244">
+        <v>-2.19</v>
+      </c>
+      <c r="AM244">
+        <v>-3.17</v>
+      </c>
+      <c r="AN244">
+        <v>-3.82</v>
+      </c>
+      <c r="AO244">
+        <v>-0.94788300000000003</v>
+      </c>
+      <c r="AP244">
+        <v>-18.489999999999998</v>
+      </c>
+      <c r="AQ244">
+        <v>-9.89</v>
+      </c>
+      <c r="AR244">
+        <v>-0.85193399999999997</v>
+      </c>
+      <c r="AS244">
+        <v>-0.490116</v>
+      </c>
+      <c r="AT244">
+        <v>-1.38</v>
+      </c>
+      <c r="AU244">
+        <v>-2.29</v>
+      </c>
+      <c r="AV244">
+        <v>-3.91</v>
+      </c>
+      <c r="AW244">
+        <v>-2.08</v>
+      </c>
+      <c r="AX244">
+        <v>-1.7</v>
+      </c>
+      <c r="AY244">
+        <v>-3.08</v>
+      </c>
+      <c r="AZ244">
+        <v>-20.11</v>
+      </c>
+      <c r="BA244">
+        <v>-2.4500000000000002</v>
+      </c>
+      <c r="BB244">
+        <v>-2.96</v>
+      </c>
+      <c r="BC244">
+        <v>-26.75</v>
+      </c>
+      <c r="BD244">
+        <v>-4.58</v>
+      </c>
+      <c r="BE244">
+        <v>6.6599999999999993E-3</v>
+      </c>
+      <c r="BF244">
+        <v>-0.43521700000000002</v>
+      </c>
+      <c r="BG244">
+        <v>-0.18183099999999999</v>
+      </c>
+      <c r="BH244">
+        <v>0.35036799999999996</v>
+      </c>
+      <c r="BI244">
+        <v>-6.2</v>
+      </c>
+      <c r="BJ244">
+        <v>-8.7200000000000006</v>
+      </c>
+      <c r="BK244">
+        <v>-464.64187700000008</v>
+      </c>
+      <c r="BL244">
+        <v>7176</v>
+      </c>
+      <c r="BM244">
+        <v>11439</v>
+      </c>
+      <c r="BN244">
+        <v>18615</v>
+      </c>
+      <c r="BO244">
+        <v>2.4960616545796408</v>
+      </c>
+    </row>
+    <row r="245" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>43772</v>
+      </c>
+      <c r="B245">
+        <v>-23.32</v>
+      </c>
+      <c r="C245">
+        <v>-20.21</v>
+      </c>
+      <c r="D245">
+        <v>-73.88</v>
+      </c>
+      <c r="E245">
+        <v>-15.25</v>
+      </c>
+      <c r="F245">
+        <v>-31.26</v>
+      </c>
+      <c r="G245">
+        <v>-62.62</v>
+      </c>
+      <c r="H245">
+        <v>-13.92</v>
+      </c>
+      <c r="I245">
+        <v>-43.58</v>
+      </c>
+      <c r="J245">
+        <v>-6.58</v>
+      </c>
+      <c r="K245">
+        <v>-8.49</v>
+      </c>
+      <c r="L245">
+        <v>-14.19</v>
+      </c>
+      <c r="M245">
+        <v>-7.89</v>
+      </c>
+      <c r="N245">
+        <v>-6.14</v>
+      </c>
+      <c r="O245">
+        <v>-29.2</v>
+      </c>
+      <c r="P245">
+        <v>-37.44</v>
+      </c>
+      <c r="Q245">
+        <v>-18.53</v>
+      </c>
+      <c r="R245">
+        <v>-5.69</v>
+      </c>
+      <c r="S245">
+        <v>-102.54</v>
+      </c>
+      <c r="T245">
+        <v>-3.39</v>
+      </c>
+      <c r="U245">
+        <v>-10.62</v>
+      </c>
+      <c r="V245">
+        <v>-5.25</v>
+      </c>
+      <c r="W245">
+        <v>-25.69</v>
+      </c>
+      <c r="X245">
+        <v>-3.38</v>
+      </c>
+      <c r="Y245">
+        <v>-8.17</v>
+      </c>
+      <c r="Z245">
+        <v>-4.25</v>
+      </c>
+      <c r="AA245">
+        <v>-6.24</v>
+      </c>
+      <c r="AB245">
+        <v>-5.63</v>
+      </c>
+      <c r="AC245">
+        <v>-3.88</v>
+      </c>
+      <c r="AD245">
+        <v>-2</v>
+      </c>
+      <c r="AE245">
+        <v>-9</v>
+      </c>
+      <c r="AF245">
+        <v>-3.91</v>
+      </c>
+      <c r="AG245">
+        <v>-7.17</v>
+      </c>
+      <c r="AH245">
+        <v>-3.14</v>
+      </c>
+      <c r="AI245">
+        <v>-8.07</v>
+      </c>
+      <c r="AJ245">
+        <v>-4.92</v>
+      </c>
+      <c r="AK245">
+        <v>-7.46</v>
+      </c>
+      <c r="AL245">
+        <v>-3.51</v>
+      </c>
+      <c r="AM245">
+        <v>-5.92</v>
+      </c>
+      <c r="AN245">
+        <v>-6.2</v>
+      </c>
+      <c r="AO245">
+        <v>-2.98</v>
+      </c>
+      <c r="AP245">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="AQ245">
+        <v>15.33</v>
+      </c>
+      <c r="AR245">
+        <v>-8.32</v>
+      </c>
+      <c r="AS245">
+        <v>-1.6</v>
+      </c>
+      <c r="AT245">
+        <v>-2.29</v>
+      </c>
+      <c r="AU245">
+        <v>-3.69</v>
+      </c>
+      <c r="AV245">
+        <v>-5.57</v>
+      </c>
+      <c r="AW245">
+        <v>-2.6</v>
+      </c>
+      <c r="AX245">
+        <v>-3.22</v>
+      </c>
+      <c r="AY245">
+        <v>-2.5299999999999998</v>
+      </c>
+      <c r="AZ245">
+        <v>-5.74</v>
+      </c>
+      <c r="BA245">
+        <v>-0.38785700000000001</v>
+      </c>
+      <c r="BB245">
+        <v>-6</v>
+      </c>
+      <c r="BC245">
+        <v>-4.9400000000000004</v>
+      </c>
+      <c r="BD245">
+        <v>-4.51</v>
+      </c>
+      <c r="BE245">
+        <v>-0.9522290000000001</v>
+      </c>
+      <c r="BF245">
+        <v>-0.75776599999999994</v>
+      </c>
+      <c r="BG245">
+        <v>-0.24974699999999997</v>
+      </c>
+      <c r="BH245">
+        <v>-2.63</v>
+      </c>
+      <c r="BI245">
+        <v>-2.78</v>
+      </c>
+      <c r="BJ245">
+        <v>-11.21</v>
+      </c>
+      <c r="BK245">
+        <v>-711.84759900000006</v>
+      </c>
+      <c r="BL245">
+        <v>9331</v>
+      </c>
+      <c r="BM245">
+        <v>14796</v>
+      </c>
+      <c r="BN245">
+        <v>24127</v>
+      </c>
+      <c r="BO245">
+        <v>2.9504190284743235</v>
+      </c>
+    </row>
+    <row r="246" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>43777</v>
+      </c>
+      <c r="B246">
+        <v>-28.93</v>
+      </c>
+      <c r="C246">
+        <v>-20.55</v>
+      </c>
+      <c r="D246">
+        <v>-31.8</v>
+      </c>
+      <c r="E246">
+        <v>-13.54</v>
+      </c>
+      <c r="F246">
+        <v>-30.61</v>
+      </c>
+      <c r="G246">
+        <v>-46.33</v>
+      </c>
+      <c r="H246">
+        <v>-8.41</v>
+      </c>
+      <c r="I246">
+        <v>-35.97</v>
+      </c>
+      <c r="J246">
+        <v>-5.43</v>
+      </c>
+      <c r="K246">
+        <v>-2.34</v>
+      </c>
+      <c r="L246">
+        <v>-15.12</v>
+      </c>
+      <c r="M246">
+        <v>-1.97</v>
+      </c>
+      <c r="N246">
+        <v>-5.88</v>
+      </c>
+      <c r="O246">
+        <v>-32.229999999999997</v>
+      </c>
+      <c r="P246">
+        <v>-30.7</v>
+      </c>
+      <c r="Q246">
+        <v>-10.35</v>
+      </c>
+      <c r="R246">
+        <v>-7.37</v>
+      </c>
+      <c r="S246">
+        <v>-60.12</v>
+      </c>
+      <c r="T246">
+        <v>-5.03</v>
+      </c>
+      <c r="U246">
+        <v>-3.6</v>
+      </c>
+      <c r="V246">
+        <v>-6.84</v>
+      </c>
+      <c r="W246">
+        <v>-23.85</v>
+      </c>
+      <c r="X246">
+        <v>-10.56</v>
+      </c>
+      <c r="Y246">
+        <v>-4.6399999999999997</v>
+      </c>
+      <c r="Z246">
+        <v>-2.23</v>
+      </c>
+      <c r="AA246">
+        <v>-3.16</v>
+      </c>
+      <c r="AB246">
+        <v>-5.63</v>
+      </c>
+      <c r="AC246">
+        <v>-3.91</v>
+      </c>
+      <c r="AD246">
+        <v>-1.25</v>
+      </c>
+      <c r="AE246">
+        <v>-7.29</v>
+      </c>
+      <c r="AF246">
+        <v>-2.52</v>
+      </c>
+      <c r="AG246">
+        <v>-6.85</v>
+      </c>
+      <c r="AH246">
+        <v>-4.03</v>
+      </c>
+      <c r="AI246">
+        <v>-2.08</v>
+      </c>
+      <c r="AJ246">
+        <v>-5.48</v>
+      </c>
+      <c r="AK246">
+        <v>-8.3699999999999992</v>
+      </c>
+      <c r="AL246">
+        <v>-0.58793600000000001</v>
+      </c>
+      <c r="AM246">
+        <v>-9.2899999999999991</v>
+      </c>
+      <c r="AN246">
+        <v>-6.76</v>
+      </c>
+      <c r="AO246">
+        <v>-3.28</v>
+      </c>
+      <c r="AP246">
+        <v>-5.13</v>
+      </c>
+      <c r="AQ246">
+        <v>-17.64</v>
+      </c>
+      <c r="AR246">
+        <v>-4.2</v>
+      </c>
+      <c r="AS246">
+        <v>-0.17904400000000001</v>
+      </c>
+      <c r="AT246">
+        <v>-2.46</v>
+      </c>
+      <c r="AU246">
+        <v>-2.85</v>
+      </c>
+      <c r="AV246">
+        <v>-5.0599999999999996</v>
+      </c>
+      <c r="AW246">
+        <v>-3.57</v>
+      </c>
+      <c r="AX246">
+        <v>-2.66</v>
+      </c>
+      <c r="AY246">
+        <v>-2.95</v>
+      </c>
+      <c r="AZ246">
+        <v>-11.59</v>
+      </c>
+      <c r="BA246">
+        <v>1.81</v>
+      </c>
+      <c r="BB246">
+        <v>-6.31</v>
+      </c>
+      <c r="BC246">
+        <v>-5.1100000000000003</v>
+      </c>
+      <c r="BD246">
+        <v>-6.82</v>
+      </c>
+      <c r="BE246">
+        <v>-1.99</v>
+      </c>
+      <c r="BF246">
+        <v>-0.72753199999999996</v>
+      </c>
+      <c r="BG246">
+        <v>-0.162881</v>
+      </c>
+      <c r="BH246">
+        <v>-0.58884399999999992</v>
+      </c>
+      <c r="BI246">
+        <v>-2.41</v>
+      </c>
+      <c r="BJ246">
+        <v>-7.26</v>
+      </c>
+      <c r="BK246">
+        <v>-602.74623700000018</v>
+      </c>
+      <c r="BL246">
+        <v>9061</v>
+      </c>
+      <c r="BM246">
+        <v>13458</v>
+      </c>
+      <c r="BN246">
+        <v>22519</v>
+      </c>
+      <c r="BO246">
+        <v>2.6766119143834102</v>
+      </c>
+    </row>
+    <row r="247" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>43784</v>
+      </c>
+      <c r="B247">
+        <v>-17.899999999999999</v>
+      </c>
+      <c r="C247">
+        <v>-17.190000000000001</v>
+      </c>
+      <c r="D247">
+        <v>-47.15</v>
+      </c>
+      <c r="E247">
+        <v>-21.19</v>
+      </c>
+      <c r="F247">
+        <v>-53.56</v>
+      </c>
+      <c r="G247">
+        <v>-34.78</v>
+      </c>
+      <c r="H247">
+        <v>-11.11</v>
+      </c>
+      <c r="I247">
+        <v>-34.15</v>
+      </c>
+      <c r="J247">
+        <v>-7.97</v>
+      </c>
+      <c r="K247">
+        <v>-13.91</v>
+      </c>
+      <c r="L247">
+        <v>-23.12</v>
+      </c>
+      <c r="M247">
+        <v>-11.11</v>
+      </c>
+      <c r="N247">
+        <v>-7.87</v>
+      </c>
+      <c r="O247">
+        <v>-38.15</v>
+      </c>
+      <c r="P247">
+        <v>-41.91</v>
+      </c>
+      <c r="Q247">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="R247">
+        <v>-8.7100000000000009</v>
+      </c>
+      <c r="S247">
+        <v>-50.69</v>
+      </c>
+      <c r="T247">
+        <v>-4.8600000000000003</v>
+      </c>
+      <c r="U247">
+        <v>-7.85</v>
+      </c>
+      <c r="V247">
+        <v>-2.99</v>
+      </c>
+      <c r="W247">
+        <v>-28.53</v>
+      </c>
+      <c r="X247">
+        <v>-14.75</v>
+      </c>
+      <c r="Y247">
+        <v>-7.19</v>
+      </c>
+      <c r="Z247">
+        <v>-4.55</v>
+      </c>
+      <c r="AA247">
+        <v>-2.57</v>
+      </c>
+      <c r="AB247">
+        <v>-3.89</v>
+      </c>
+      <c r="AC247">
+        <v>-2.29</v>
+      </c>
+      <c r="AD247">
+        <v>-2.79</v>
+      </c>
+      <c r="AE247">
+        <v>-11.35</v>
+      </c>
+      <c r="AF247">
+        <v>-6.24</v>
+      </c>
+      <c r="AG247">
+        <v>-4.87</v>
+      </c>
+      <c r="AH247">
+        <v>-0.67209200000000002</v>
+      </c>
+      <c r="AI247">
+        <v>-5.46</v>
+      </c>
+      <c r="AJ247">
+        <v>-5.6</v>
+      </c>
+      <c r="AK247">
+        <v>-4.66</v>
+      </c>
+      <c r="AL247">
+        <v>-2.0499999999999998</v>
+      </c>
+      <c r="AM247">
+        <v>-8.0500000000000007</v>
+      </c>
+      <c r="AN247">
+        <v>-4.28</v>
+      </c>
+      <c r="AO247">
+        <v>-2.6</v>
+      </c>
+      <c r="AP247">
+        <v>-8.59</v>
+      </c>
+      <c r="AQ247">
+        <v>-26.4</v>
+      </c>
+      <c r="AR247">
+        <v>-8.48</v>
+      </c>
+      <c r="AS247">
+        <v>-0.24761</v>
+      </c>
+      <c r="AT247">
+        <v>-2.0499999999999998</v>
+      </c>
+      <c r="AU247">
+        <v>-4.67</v>
+      </c>
+      <c r="AV247">
+        <v>-4.42</v>
+      </c>
+      <c r="AW247">
+        <v>-4.4400000000000004</v>
+      </c>
+      <c r="AX247">
+        <v>-2.71</v>
+      </c>
+      <c r="AY247">
+        <v>-2.5499999999999998</v>
+      </c>
+      <c r="AZ247">
+        <v>-15.88</v>
+      </c>
+      <c r="BA247">
+        <v>-3.82</v>
+      </c>
+      <c r="BB247">
+        <v>-5.0199999999999996</v>
+      </c>
+      <c r="BC247">
+        <v>-12.74</v>
+      </c>
+      <c r="BD247">
+        <v>-3.13</v>
+      </c>
+      <c r="BE247">
+        <v>-0.29168499999999997</v>
+      </c>
+      <c r="BF247">
+        <v>-0.66021700000000005</v>
+      </c>
+      <c r="BG247">
+        <v>1.7638999999999998E-2</v>
+      </c>
+      <c r="BH247">
+        <v>-0.91795400000000005</v>
+      </c>
+      <c r="BI247">
+        <v>-6.33</v>
+      </c>
+      <c r="BJ247">
+        <v>-7.48</v>
+      </c>
+      <c r="BK247">
+        <v>-716.97191900000007</v>
+      </c>
+      <c r="BL247">
+        <v>7564</v>
+      </c>
+      <c r="BM247">
+        <v>11803</v>
+      </c>
+      <c r="BN247">
+        <v>19367</v>
+      </c>
+      <c r="BO247">
+        <v>3.7020288067331029</v>
       </c>
     </row>
   </sheetData>
